--- a/ToDo-Planung_Heydemann_Daehne_Bechtel_Hörnchen.xlsx
+++ b/ToDo-Planung_Heydemann_Daehne_Bechtel_Hörnchen.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LHE\Desktop\Berufsschule\ANW Jahr 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andreas.Daehne\source\repos\GSO-SHOP-2.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{521A4063-6781-4BBC-8E80-17E8558A76D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11746" xr2:uid="{6AF173FA-4AC5-4E2A-98E6-1311F0B6D131}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11700"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="54">
   <si>
     <t>#Id</t>
   </si>
@@ -50,9 +49,6 @@
 tatsächlich</t>
   </si>
   <si>
-    <t>#10</t>
-  </si>
-  <si>
     <t>Diese Tabelle füllen erste Version</t>
   </si>
   <si>
@@ -62,9 +58,6 @@
     <t>10 stets</t>
   </si>
   <si>
-    <t>#20</t>
-  </si>
-  <si>
     <t>---</t>
   </si>
   <si>
@@ -77,9 +70,6 @@
     <t>Alle</t>
   </si>
   <si>
-    <t>#30</t>
-  </si>
-  <si>
     <t>Klassendiagramm erstellt(UML)</t>
   </si>
   <si>
@@ -89,43 +79,121 @@
     <t>Heydemann, Hörnchen</t>
   </si>
   <si>
-    <t>#40</t>
-  </si>
-  <si>
     <t>Erstellen der Datenbank</t>
   </si>
   <si>
-    <t>Keine Ahnung iwas mit EFCore</t>
-  </si>
-  <si>
-    <t>(Alle), Daehne</t>
-  </si>
-  <si>
-    <t>#50</t>
-  </si>
-  <si>
-    <t>Login-Area</t>
-  </si>
-  <si>
     <t>Input.cs</t>
   </si>
   <si>
     <t>Hörnchen</t>
   </si>
   <si>
-    <t>#60</t>
-  </si>
-  <si>
     <t>User.cs</t>
   </si>
   <si>
-    <t>Nutzerklasse</t>
+    <t>diverse Entity-Klassen</t>
+  </si>
+  <si>
+    <t>Daehne,Alle</t>
+  </si>
+  <si>
+    <t>ShoppingCart.cs</t>
+  </si>
+  <si>
+    <t>ShoppingCartItem.cs</t>
+  </si>
+  <si>
+    <t>Product.cs</t>
+  </si>
+  <si>
+    <t>Author.cs</t>
+  </si>
+  <si>
+    <t>Publisher.cs</t>
+  </si>
+  <si>
+    <t>Category.cs</t>
+  </si>
+  <si>
+    <t>Format.cs</t>
+  </si>
+  <si>
+    <t>UserAccess.cs</t>
+  </si>
+  <si>
+    <t>Dashboard.cs</t>
+  </si>
+  <si>
+    <t>Shop.cs</t>
+  </si>
+  <si>
+    <t>ShoppingCartView.cs</t>
+  </si>
+  <si>
+    <t>ShoppingCartService.cs</t>
+  </si>
+  <si>
+    <t>PurchaseHistroyView.cs</t>
+  </si>
+  <si>
+    <t>PurchaseHistroy.cs</t>
+  </si>
+  <si>
+    <t>Nutzerklasse erstellen</t>
+  </si>
+  <si>
+    <t>Klasse zur Verwaltung von ShoppingCarts</t>
+  </si>
+  <si>
+    <t>Klasse zur Vewaltung eines Produktes und dessen Anzahl im Cart</t>
+  </si>
+  <si>
+    <t>Klasse zur Darstellung von Produkten</t>
+  </si>
+  <si>
+    <t>Info-Klasse erstellen, welche Informationen zu Autoren verwaltet</t>
+  </si>
+  <si>
+    <t>Info-Klasse erstellen, welche Informationen zu Publishern verwaltet</t>
+  </si>
+  <si>
+    <t>Info-Klasse erstellen, welche Informationen zu Kategorien verwaltet</t>
+  </si>
+  <si>
+    <t>Info-Klasse erstellen, welche Informationen zu Formate von Produkten verwaltet</t>
+  </si>
+  <si>
+    <t>Klasse erstellen, welche den Log-In und Log-out von Nutzern regelt</t>
+  </si>
+  <si>
+    <t>Klasse erstellen, welche sich um die Darstellung des Login-Bereichs kümmert</t>
+  </si>
+  <si>
+    <t>Klasse erstellen, welche sich um das anzeigen von Produkten und ermöglichen der Auswahl jener kümmert</t>
+  </si>
+  <si>
+    <t>Klasse erstellen, welche den Inhalt von ShoppingCarts darstellen kann</t>
+  </si>
+  <si>
+    <t>Klasse erstellen, welche sich um das befüllen/leeren des ShoppingCart kümmert; als auch den Kauf zu initialisieren</t>
+  </si>
+  <si>
+    <t>Klasse erstellen, welche die bisher getätigten Einkäufe darstellt</t>
+  </si>
+  <si>
+    <t>Klasse erstellen, welche bereits vorhandene ShoppingCarts anzeigen kann und dessen Inhalte</t>
+  </si>
+  <si>
+    <t>Bechtel</t>
+  </si>
+  <si>
+    <t>Daehne</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -593,24 +661,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A81DF283-738A-4386-B874-A4DC456AA484}">
-  <dimension ref="A1:G29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.73046875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.265625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="52.06640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.28515625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="52" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="7" width="11" style="3" customWidth="1"/>
     <col min="8" max="16384" width="14" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="6"/>
       <c r="B1" s="7" t="str">
         <f ca="1">MID(CELL("filename",$A$1),FIND("[",CELL("filename",$A$1))+1,FIND("]",CELL("filename",$A$1))-FIND("[",CELL("filename",$A$1))-1)</f>
@@ -622,7 +690,7 @@
       <c r="F1" s="7"/>
       <c r="G1" s="8"/>
     </row>
-    <row r="2" spans="1:7" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -645,9 +713,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A3" s="2" t="s">
-        <v>7</v>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>8</v>
@@ -659,273 +727,442 @@
       <c r="D3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="11"/>
+      <c r="D4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="2">
+        <v>90</v>
+      </c>
+      <c r="F4" s="9">
+        <v>1</v>
+      </c>
+      <c r="G4" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>20</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F3" s="9">
+      <c r="C5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" s="2">
+        <v>120</v>
+      </c>
+      <c r="F5" s="9">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>21</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="2">
+        <v>60</v>
+      </c>
+      <c r="F6" s="9">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>8</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" s="2">
+        <v>120</v>
+      </c>
+      <c r="F7" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="G7" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>14</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="2">
+        <v>90</v>
+      </c>
+      <c r="F8" s="9">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>15</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" s="2">
+        <v>120</v>
+      </c>
+      <c r="F9" s="9">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>5</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="2">
+        <v>90</v>
+      </c>
+      <c r="F10" s="9">
+        <v>0.7</v>
+      </c>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
         <v>1</v>
       </c>
-      <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="2" t="str">
+      <c r="B11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="2" t="str">
         <f ca="1">MID(CELL("filename",$A$1),FIND("[",CELL("filename",$A$1))+1,FIND("]",CELL("filename",$A$1))-FIND("[",CELL("filename",$A$1))-1)</f>
         <v>ToDo-Planung_Heydemann_Daehne_Bechtel_Hörnchen.xlsx</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2" t="s">
+      <c r="D11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="2">
+        <v>45</v>
+      </c>
+      <c r="F11" s="9">
+        <v>1</v>
+      </c>
+      <c r="G11" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>7</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="2">
+        <v>120</v>
+      </c>
+      <c r="F12" s="9">
+        <v>0</v>
+      </c>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>9</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="2">
+        <v>60</v>
+      </c>
+      <c r="F13" s="9">
+        <v>0</v>
+      </c>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
         <v>10</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="B14" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="2">
+        <v>60</v>
+      </c>
+      <c r="F14" s="9">
+        <v>0</v>
+      </c>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>11</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="2">
+        <v>60</v>
+      </c>
+      <c r="F15" s="9">
+        <v>0</v>
+      </c>
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
         <v>12</v>
       </c>
-      <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="2" t="s">
+      <c r="B16" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16" s="2">
+        <v>90</v>
+      </c>
+      <c r="F16" s="9">
+        <v>0</v>
+      </c>
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>4</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="2" t="s">
+      <c r="C17" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="2">
+      <c r="D17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="2">
         <v>90</v>
       </c>
-      <c r="F5" s="9">
-        <v>1</v>
-      </c>
-      <c r="G5" s="2">
+      <c r="F17" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="G17" s="2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>6</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="2">
+        <v>120</v>
+      </c>
+      <c r="F18" s="9">
+        <v>0</v>
+      </c>
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>13</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" s="2">
+        <v>120</v>
+      </c>
+      <c r="F19" s="9">
+        <v>0</v>
+      </c>
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>16</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" s="2">
         <v>90</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="2" t="s">
+      <c r="F20" s="9">
+        <v>0</v>
+      </c>
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
         <v>17</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="B21" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" s="2">
+        <v>60</v>
+      </c>
+      <c r="F21" s="9">
+        <v>0</v>
+      </c>
+      <c r="G21" s="2"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
         <v>18</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="B22" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E22" s="2">
+        <v>60</v>
+      </c>
+      <c r="F22" s="9">
+        <v>0</v>
+      </c>
+      <c r="G22" s="2"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>19</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" s="2">
         <v>90</v>
       </c>
-      <c r="F6" s="9">
-        <v>0.8</v>
-      </c>
-      <c r="G6" s="2">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="2">
-        <v>120</v>
-      </c>
-      <c r="F7" s="9">
-        <v>0.7</v>
-      </c>
-      <c r="G7" s="2"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="2">
-        <v>90</v>
-      </c>
-      <c r="F9" s="9">
-        <v>0</v>
-      </c>
-      <c r="G9" s="2"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A11" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="2">
-        <v>90</v>
-      </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
+      <c r="F23" s="9">
+        <v>0</v>
+      </c>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -934,64 +1171,16 @@
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-    </row>
   </sheetData>
+  <sortState ref="A3:G23">
+    <sortCondition ref="D5"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100B8E5EA213BE68940AE1179C133B25518" ma:contentTypeVersion="9" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="da0c1eae53a8b3d36ced0909b86c8904">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2555fed0-ea47-41f0-a083-9d8241b49e56" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="864a402d4ce79f38ff6da363f2f53199" ns2:_="">
     <xsd:import namespace="2555fed0-ea47-41f0-a083-9d8241b49e56"/>
@@ -1169,24 +1358,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{353EF643-0AB6-4413-8F22-D5DFD2ED6691}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12A48405-2C1B-401F-8245-98D10AB601AA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D73DC9DB-8226-4C7B-970F-A89D19514D5E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1202,4 +1389,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{353EF643-0AB6-4413-8F22-D5DFD2ED6691}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12A48405-2C1B-401F-8245-98D10AB601AA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="2555fed0-ea47-41f0-a083-9d8241b49e56"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/ToDo-Planung_Heydemann_Daehne_Bechtel_Hörnchen.xlsx
+++ b/ToDo-Planung_Heydemann_Daehne_Bechtel_Hörnchen.xlsx
@@ -665,7 +665,7 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -859,9 +859,11 @@
         <v>120</v>
       </c>
       <c r="F9" s="9">
-        <v>0</v>
-      </c>
-      <c r="G9" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="G9" s="2">
+        <v>50</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
@@ -1359,18 +1361,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1392,14 +1394,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{353EF643-0AB6-4413-8F22-D5DFD2ED6691}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12A48405-2C1B-401F-8245-98D10AB601AA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -1413,4 +1407,12 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{353EF643-0AB6-4413-8F22-D5DFD2ED6691}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/ToDo-Planung_Heydemann_Daehne_Bechtel_Hörnchen.xlsx
+++ b/ToDo-Planung_Heydemann_Daehne_Bechtel_Hörnchen.xlsx
@@ -665,7 +665,7 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1361,18 +1361,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1394,6 +1394,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{353EF643-0AB6-4413-8F22-D5DFD2ED6691}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12A48405-2C1B-401F-8245-98D10AB601AA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -1407,12 +1415,4 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{353EF643-0AB6-4413-8F22-D5DFD2ED6691}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>